--- a/data/trans_dic/P8_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P8_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que vive en hogares unipersonales</t>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,61%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>9,73%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
+          <t>10,56%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12,78%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
           <t>8,97%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>8,67%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>8,08%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>9,16%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>11,18%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,87</t>
+          <t>5,96; 10,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 10,17</t>
+          <t>5,63; 10,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,91</t>
+          <t>5,42; 9,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 10,36</t>
+          <t>6,42; 10,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,7</t>
+          <t>5,84; 10,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,81</t>
+          <t>7,49; 12,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,4</t>
+          <t>9,32; 14,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,26</t>
+          <t>7,87; 12,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 12,4</t>
+          <t>7,58; 12,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 16,28</t>
+          <t>7,52; 11,49</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 10,59</t>
+          <t>8,58; 12,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,27; 10,56</t>
+          <t>8,64; 14,47</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,48</t>
+          <t>10,1; 16,58</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 10,74</t>
+          <t>9,11; 14,26</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 13,17</t>
+          <t>7,47; 10,65</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 10,72</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 10,0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 11,32</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 11,98</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>9,32; 13,53</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 13,45</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,41%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>6,6%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>7,67%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,22%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>9,34%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>8,12%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>7,81%</t>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,11</t>
+          <t>4,65; 9,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,28; 11,38</t>
+          <t>5,21; 11,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 12,35</t>
+          <t>6,85; 12,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,72</t>
+          <t>5,98; 10,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,94</t>
+          <t>6,34; 12,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 9,82</t>
+          <t>3,94; 9,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 10,25</t>
+          <t>7,78; 16,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 9,71</t>
+          <t>4,74; 9,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,35</t>
+          <t>5,49; 10,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,27; 15,69</t>
+          <t>5,16; 9,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,49</t>
+          <t>5,65; 10,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,49</t>
+          <t>7,03; 13,17</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,45</t>
+          <t>5,36; 16,53</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 9,95</t>
+          <t>7,88; 16,72</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,32</t>
+          <t>5,08; 8,36</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 9,71</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 10,17</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 9,83</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 11,93</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>5,41; 11,1</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 14,98</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>3,82%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>5,52%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>5,95%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>4,51%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>7,42%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>8,86%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 13,83</t>
+          <t>4,29; 13,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 11,46</t>
+          <t>3,22; 12,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,86; 14,73</t>
+          <t>5,52; 14,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 15,91</t>
+          <t>6,23; 15,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>5,98; 20,17</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 8,4</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 9,6</t>
+          <t>1,58; 8,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 13,79</t>
+          <t>0,83; 7,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>2,66; 10,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 12,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 19,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 9,54</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 7,51</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>4,99; 10,97</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 9,27</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 8,2</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 10,64</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 12,47</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 15,84</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>8,79%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>7,84%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>9,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>7,65%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>8,07%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>8,72%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>8,2%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>10,42%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,04</t>
+          <t>5,97; 9,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,09</t>
+          <t>5,92; 9,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,83</t>
+          <t>6,94; 10,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,17</t>
+          <t>7,02; 10,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,99</t>
+          <t>7,31; 11,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 9,27</t>
+          <t>6,96; 10,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,74</t>
+          <t>9,57; 13,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,56</t>
+          <t>6,49; 9,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,59</t>
+          <t>6,8; 9,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 15,0</t>
+          <t>6,75; 9,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 8,76</t>
+          <t>7,7; 10,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 8,89</t>
+          <t>8,67; 12,9</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 9,21</t>
+          <t>9,52; 15,12</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,62; 9,9</t>
+          <t>9,61; 13,95</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 12,41</t>
+          <t>6,57; 8,67</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 9,09</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 9,3</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 9,94</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>8,42; 11,18</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 12,28</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 13,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive en hogares unipersonales (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>133685</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>127364</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>119981</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>137183</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>132814</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21878</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26206</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>174245</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>178010</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>171034</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>191264</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>204099</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>30398</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>27117</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>307930</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>305374</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>291015</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>328447</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>336913</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>52276</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>53323</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>97813; 177577</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>93120; 166607</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>89110; 164399</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>105692; 179647</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>95189; 176975</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17177; 27582</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21043; 31666</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>141028; 219158</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>137225; 229053</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>137178; 209626</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>155542; 233707</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>155859; 261006</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24033; 39438</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>21522; 33701</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>256458; 365492</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>257959; 371244</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>246693; 347033</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>279585; 391247</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>275400; 411397</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>43564; 63231</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>46351; 62161</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89474</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>104551</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>127309</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>116430</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>125076</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8269</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>93113</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107351</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>97263</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>104091</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>137530</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6122</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7614</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>182587</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>211901</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>224572</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>220521</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>262606</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>10741</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>15883</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64521; 125411</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>71616; 152353</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>94520; 174127</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>82583; 150149</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>87623; 170022</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2839; 7035</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5592; 11665</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>66784; 133306</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>76257; 144300</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>70765; 134799</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>77935; 144791</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>97517; 182769</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3513; 10834</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5225; 11092</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>142192; 233913</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>166002; 268295</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>181409; 279699</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>176897; 271425</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>211801; 330398</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>7445; 15270</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>12088; 20709</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>33947</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27565</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40030</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41324</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46629</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15739</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13199</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22601</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31666</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>40554</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>49687</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>40765</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>62631</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>72991</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>87182</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18134; 57357</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13631; 51023</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23347; 62822</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26352; 67013</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24634; 83114</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6499; 34013</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3439; 32535</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10899; 41763</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17126; 53508</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19467; 78881</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>29945; 77400</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>23740; 68439</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>40380; 88534</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>50920; 104052</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>54098; 130505</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>257106</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>259479</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>287320</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>294937</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>304519</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26497</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34475</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>283097</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>298560</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>290899</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>327021</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>382182</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>36520</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>34731</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>540203</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>558040</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>578218</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>621958</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>686701</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>63017</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>69206</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>206068; 316636</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>204194; 317467</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>239283; 352446</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>242280; 352454</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>250099; 380704</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20975; 32182</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28502; 40689</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>234406; 336560</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>245354; 356763</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>243272; 345851</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>277376; 387039</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>312301; 464907</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>28893; 45877</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>29080; 42203</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>463766; 611975</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>482657; 642063</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>509928; 655607</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>553203; 700674</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>591729; 785662</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>53770; 74291</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>60688; 79596</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
